--- a/EnterprisePortal/TC_CreateTimesheet/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_CreateTimesheet/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="195">
   <si>
     <t>Flow</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>3000</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="936">
+  <borders count="949">
     <border>
       <left/>
       <right/>
@@ -1559,11 +1562,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="936">
+  <cellXfs count="949">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2500,6 +2516,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="933" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="934" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="935" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="936" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="937" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="938" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="939" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="940" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="942" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="943" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="944" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="945" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="946" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="947" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="948" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2509,7 +2538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3286,9 +3315,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="215" t="s">
-        <v>7</v>
-      </c>
+      <c r="A51" s="938"/>
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -3332,9 +3359,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="217" t="s">
-        <v>7</v>
-      </c>
+      <c r="A53" s="939"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3342,27 +3367,27 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="218" t="s">
+      <c r="A54" s="217" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
@@ -3374,41 +3399,39 @@
         <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="219" t="s">
-        <v>7</v>
-      </c>
+      <c r="A55" s="940"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="220" t="s">
+      <c r="A56" s="218" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -3420,41 +3443,39 @@
         <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="221" t="s">
-        <v>7</v>
-      </c>
+      <c r="A57" s="941"/>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="222" t="s">
+      <c r="A58" s="219" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -3466,210 +3487,339 @@
         <v>127</v>
       </c>
       <c r="G58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="942"/>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="943"/>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="944"/>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="233"/>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="65">
+      <c r="A65" s="233"/>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>84</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D65" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E65" t="s">
         <v>86</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F65" t="s">
         <v>87</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="235"/>
-      <c r="B60" t="s">
+    <row r="66">
+      <c r="A66" s="235"/>
+      <c r="B66" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E66" t="s">
         <v>88</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F66" t="s">
         <v>89</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="236"/>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="293"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="251"/>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="291"/>
-      <c r="B64" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="252"/>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="298"/>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>141</v>
-      </c>
-    </row>
     <row r="67">
-      <c r="A67" s="299"/>
+      <c r="A67" s="236"/>
       <c r="B67" t="s">
         <v>38</v>
       </c>
       <c r="E67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="251"/>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="291"/>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="252"/>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="298"/>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="299"/>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
         <v>147</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F72" t="s">
         <v>32</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="297"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="242" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="73">
+      <c r="A73" s="297"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>97</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D74" t="s">
         <v>34</v>
       </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="250" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>98</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D75" t="s">
         <v>34</v>
       </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="243"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="244"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="245"/>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="243"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="244"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="245"/>
     </row>
   </sheetData>
 </worksheet>

--- a/EnterprisePortal/TC_CreateTimesheet/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_CreateTimesheet/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="200">
   <si>
     <t>Flow</t>
   </si>
@@ -599,6 +599,21 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>ClickRibbon</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
+  </si>
+  <si>
+    <t>inDialog</t>
   </si>
 </sst>
 </file>
@@ -619,7 +634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="949">
+  <borders count="960">
     <border>
       <left/>
       <right/>
@@ -1575,11 +1590,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="949">
+  <cellXfs count="960">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2529,6 +2555,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="946" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="947" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="948" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="949" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="950" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="951" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="952" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="953" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="954" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="955" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="956" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="958" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="959" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H74"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2795,244 +2832,259 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="266"/>
+      <c r="A23" s="263" t="s">
+        <v>115</v>
+      </c>
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="264"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="162"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="954"/>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="267"/>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="268"/>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="269"/>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="263" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="264"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="24"/>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="162"/>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="A30" s="164"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="153"/>
+      <c r="B32" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="158" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="159" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="160"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="177"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="G30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="56"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="933"/>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="164"/>
+      <c r="A34" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="64"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="155" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="159" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="160"/>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="177"/>
+      <c r="A37" s="229"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -3040,27 +3092,27 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="185" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
@@ -3076,43 +3128,40 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="186" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="232" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
+      <c r="A40" s="213"/>
     </row>
     <row r="41">
-      <c r="A41" s="229"/>
+      <c r="A41" s="223" t="s">
+        <v>7</v>
+      </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -3128,37 +3177,37 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="185" t="s">
+      <c r="A42" s="224" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="186" t="s">
+      <c r="A43" s="199" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
@@ -3174,17 +3223,37 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="213"/>
+      <c r="A44" s="207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="223" t="s">
+      <c r="A45" s="208" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -3200,14 +3269,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="224" t="s">
+      <c r="A46" s="214" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
@@ -3219,18 +3288,16 @@
         <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="199" t="s">
-        <v>7</v>
-      </c>
+      <c r="A47" s="938"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -3246,14 +3313,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="207" t="s">
+      <c r="A48" s="216" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
@@ -3265,18 +3332,16 @@
         <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="208" t="s">
-        <v>7</v>
-      </c>
+      <c r="A49" s="939"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>34</v>
@@ -3292,14 +3357,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="214" t="s">
+      <c r="A50" s="217" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>42</v>
@@ -3311,16 +3376,16 @@
         <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="938"/>
+      <c r="A51" s="940"/>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>34</v>
@@ -3336,14 +3401,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="216" t="s">
+      <c r="A52" s="218" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
@@ -3355,16 +3420,16 @@
         <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="939"/>
+      <c r="A53" s="941"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
@@ -3380,14 +3445,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="217" t="s">
+      <c r="A54" s="219" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
@@ -3399,16 +3464,16 @@
         <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="940"/>
+      <c r="A55" s="942"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -3424,14 +3489,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="218" t="s">
+      <c r="A56" s="220" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -3443,16 +3508,16 @@
         <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="941"/>
+      <c r="A57" s="943"/>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
@@ -3468,14 +3533,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="219" t="s">
+      <c r="A58" s="221" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -3487,16 +3552,16 @@
         <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="942"/>
+      <c r="A59" s="944"/>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
@@ -3512,14 +3577,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="220" t="s">
+      <c r="A60" s="222" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
         <v>42</v>
@@ -3531,295 +3596,207 @@
         <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="943"/>
+      <c r="A61" s="233"/>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="235"/>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="236"/>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="251"/>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="291"/>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="252"/>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="298"/>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="299"/>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="297"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="221" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="944"/>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" t="s">
         <v>34</v>
       </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="222" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="233"/>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="235"/>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="236"/>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="251"/>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="291"/>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="252"/>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="298"/>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>145</v>
-      </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="299"/>
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>141</v>
-      </c>
+      <c r="A72" s="243"/>
     </row>
     <row r="73">
-      <c r="A73" s="297"/>
+      <c r="A73" s="244"/>
     </row>
     <row r="74">
-      <c r="A74" s="242" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="250" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="243"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="244"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="245"/>
+      <c r="A74" s="245"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3947,7 +3924,7 @@
         <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3977,10 +3954,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="346" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D11" s="347" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E11" s="348" t="s">
         <v>147</v>
@@ -3994,7 +3971,7 @@
       <c r="H11" s="351"/>
     </row>
     <row r="12">
-      <c r="A12" s="934"/>
+      <c r="A12" s="957"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
